--- a/2 Normalização de Dados/Exercícios/tabela modelagem banco de dados.xlsx
+++ b/2 Normalização de Dados/Exercícios/tabela modelagem banco de dados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
   <si>
     <t>NOME</t>
   </si>
@@ -62,27 +62,12 @@
     <t>dione@gmail.com</t>
   </si>
   <si>
-    <t>Tabela ALUNOS</t>
-  </si>
-  <si>
-    <t>Tabela CURSOS</t>
-  </si>
-  <si>
-    <t>PREÇO</t>
-  </si>
-  <si>
     <t>Programação</t>
   </si>
   <si>
     <t>Banco de Dados</t>
   </si>
   <si>
-    <t>Outro</t>
-  </si>
-  <si>
-    <t>CODIGO</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -128,24 +113,12 @@
     <t>(49) 99596-9098</t>
   </si>
   <si>
-    <t>CODIGO_CURSOS</t>
-  </si>
-  <si>
-    <t>CODIGO_ALUNOS</t>
-  </si>
-  <si>
-    <t>CODIGO_INSTRUTOR</t>
-  </si>
-  <si>
     <t>I2</t>
   </si>
   <si>
     <t>I3</t>
   </si>
   <si>
-    <t>Tabela PREÇO</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
@@ -155,17 +128,83 @@
     <t>P3</t>
   </si>
   <si>
-    <t>CODIGO_PREÇO</t>
-  </si>
-  <si>
-    <t>Tabela CURSOS_ADQURIDOS</t>
+    <t>CODIGO (PK)</t>
+  </si>
+  <si>
+    <t>Tabela TIPO</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Modelagem de Dados</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>CURSO</t>
+  </si>
+  <si>
+    <t>TIPO(FK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INSTRUTOR (FK)</t>
+  </si>
+  <si>
+    <t>VALOR</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>SQL Completo</t>
+  </si>
+  <si>
+    <t>Tabela PEDIDO</t>
+  </si>
+  <si>
+    <t>Tabela ALUNO</t>
+  </si>
+  <si>
+    <t>Tabela CURSO</t>
+  </si>
+  <si>
+    <t>ALUNO(FK)</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>HORA</t>
+  </si>
+  <si>
+    <t>Tabela PEDIDO_DETALHE</t>
+  </si>
+  <si>
+    <t>PEDIDO (FK)</t>
+  </si>
+  <si>
+    <t>CURSO(FK)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="h:mm:ss;@"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +214,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -206,6 +238,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -309,82 +357,105 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -666,339 +737,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:W18"/>
+  <dimension ref="B2:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="13" width="19.7109375" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K1" s="24"/>
-    </row>
-    <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="23"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="G2" s="4" t="s">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="4" t="s">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="O2" s="9" t="s">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="11"/>
-      <c r="T2" s="9" t="s">
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="11"/>
-    </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="30">
+        <v>45108</v>
+      </c>
+      <c r="E28" s="32">
+        <v>0.474675925925926</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="31">
+        <v>45109</v>
+      </c>
+      <c r="E29" s="33">
+        <v>0.9306712962962963</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="30">
+        <v>45110</v>
+      </c>
+      <c r="E30" s="34">
+        <v>0.56255787037037031</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="8" t="s">
+      <c r="D34" s="38">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" s="14">
-        <v>2000</v>
-      </c>
-      <c r="O4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W4" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="15">
+      <c r="D37" s="11">
         <v>1500</v>
       </c>
-      <c r="O5" s="16">
-        <v>12</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="T5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="14">
-        <v>800</v>
-      </c>
-      <c r="O6" s="17">
-        <v>13</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K7" s="24"/>
-    </row>
-    <row r="8" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K8" s="24"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K9" s="24"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K10" s="24"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K11" s="24"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K12" s="24"/>
-    </row>
-    <row r="13" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K13" s="24"/>
-    </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K14" s="24"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="K15" s="24"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="U16" s="20"/>
-    </row>
-    <row r="18" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T18" s="21"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G42" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="L2:M2"/>
+  <mergeCells count="6">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E22" r:id="rId1"/>
+    <hyperlink ref="E23" r:id="rId2"/>
+    <hyperlink ref="E24" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/2 Normalização de Dados/Exercícios/tabela modelagem banco de dados.xlsx
+++ b/2 Normalização de Dados/Exercícios/tabela modelagem banco de dados.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="58">
   <si>
     <t>NOME</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t>CURSO(FK)</t>
+  </si>
+  <si>
+    <t>INSTRUTOR</t>
   </si>
 </sst>
 </file>
@@ -202,7 +205,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="h:mm:ss;@"/>
+    <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -406,18 +409,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -436,16 +427,13 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -456,6 +444,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -739,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,16 +761,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="35"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="20" t="s">
         <v>40</v>
       </c>
     </row>
@@ -796,19 +799,19 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="28"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>22</v>
@@ -852,28 +855,28 @@
       <c r="E12" s="19"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="20" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="7" t="s">
@@ -935,18 +938,18 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
@@ -1006,12 +1009,12 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
@@ -1034,10 +1037,10 @@
       <c r="C28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="26">
         <v>45108</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="28">
         <v>0.474675925925926</v>
       </c>
     </row>
@@ -1048,10 +1051,10 @@
       <c r="C29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="31">
+      <c r="D29" s="27">
         <v>45109</v>
       </c>
-      <c r="E29" s="33">
+      <c r="E29" s="29">
         <v>0.9306712962962963</v>
       </c>
     </row>
@@ -1062,39 +1065,39 @@
       <c r="C30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="30">
+      <c r="D30" s="26">
         <v>45110</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="30">
         <v>0.56255787037037031</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="20" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="33">
         <v>1500</v>
       </c>
     </row>
@@ -1105,7 +1108,7 @@
       <c r="C35" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="36">
+      <c r="D35" s="31">
         <v>500</v>
       </c>
     </row>
@@ -1132,7 +1135,7 @@
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="G42" s="39"/>
+      <c r="G42" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="6">
